--- a/xlwings_test.xlsx
+++ b/xlwings_test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radoslawjaniak/PycharmProjects/PythonExcelXlwings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radek\PycharmProjects\PythonExcelXlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE476529-E290-3945-ADF3-9D230F3526C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43E1361-E23E-4C5D-AAFB-C21709F5F042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="17160" xr2:uid="{9C56DFA8-96B4-F844-88F3-354B59A8E51E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="16020" xr2:uid="{C9BC7F27-5F9F-4620-AF9D-1BD85A21DBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,13 +45,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -410,14 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB842B31-8B0F-5440-81C3-967A9BB92AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D32B9BF-8B5F-4D60-A42B-E1BDAC44E083}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/xlwings_test.xlsx
+++ b/xlwings_test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radek\PycharmProjects\PythonExcelXlwings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radoslawjaniak/PycharmProjects/PythonExcelXlwings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43E1361-E23E-4C5D-AAFB-C21709F5F042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59018AEF-53A8-F443-84AC-BBB32C71271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="16020" xr2:uid="{C9BC7F27-5F9F-4620-AF9D-1BD85A21DBC5}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{70BF9800-86F8-6D42-9019-DC3AC335D57C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,9 +45,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -78,7 +78,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -94,9 +94,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +134,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -240,7 +240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,14 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D32B9BF-8B5F-4D60-A42B-E1BDAC44E083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CD92C5-3B4C-F747-ACC0-32B65CF7EE2D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
